--- a/ncp-gop-transect-summer-2018/discreteratesEn617.xlsx
+++ b/ncp-gop-transect-summer-2018/discreteratesEn617.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-eims-toi-ncp-gop/ncp-gop-transect-summer-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC54910F-91D4-5846-8611-6A95BD89377D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC73A658-2594-A34A-BB88-B05B4B3346FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13580" xr2:uid="{C77C14E2-0659-5348-834F-4B95377FF5E1}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>missingValueCodeExplanation</t>
   </si>
   <si>
-    <t>utc_datetime</t>
-  </si>
-  <si>
     <t>Date and time in UTC</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>YYYY-MM-DD hh:mm:ss</t>
   </si>
   <si>
-    <t>matlab_date</t>
-  </si>
-  <si>
     <t>UTC date and time in MATLAB serial date number format</t>
   </si>
   <si>
@@ -78,18 +72,12 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
     <t>Latitude of sample event</t>
   </si>
   <si>
     <t>degree</t>
   </si>
   <si>
-    <t>lon</t>
-  </si>
-  <si>
     <t>Longitude of sample event</t>
   </si>
   <si>
@@ -118,6 +106,18 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>datetime_utc</t>
+  </si>
+  <si>
+    <t>datetime_utc_matlab</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,118 +517,118 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/discreteratesEn617.xlsx
+++ b/ncp-gop-transect-summer-2018/discreteratesEn617.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-eims-toi-ncp-gop/ncp-gop-transect-summer-2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-summer-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC73A658-2594-A34A-BB88-B05B4B3346FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13580" xr2:uid="{C77C14E2-0659-5348-834F-4B95377FF5E1}"/>
+    <workbookView xWindow="876" yWindow="1464" windowWidth="24636" windowHeight="13584"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,9 +86,6 @@
     <t>Gross oxygen production</t>
   </si>
   <si>
-    <t>micromolePerMeterSquaredPerDay</t>
-  </si>
-  <si>
     <t>Missing value</t>
   </si>
   <si>
@@ -118,12 +114,15 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>millimolePerMeterSquaredPerDay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -479,20 +478,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E3858F-F830-AB4F-AD1A-2D653990F1C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,9 +514,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -529,9 +528,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -543,9 +542,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -557,9 +556,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -571,7 +570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -582,41 +581,41 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -625,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/discreteratesEn617.xlsx
+++ b/ncp-gop-transect-summer-2018/discreteratesEn617.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>attributeName</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>millimolePerMeterSquaredPerDay</t>
+  </si>
+  <si>
+    <t>toi_source</t>
+  </si>
+  <si>
+    <t>Bottle sample from niskin or underway</t>
+  </si>
+  <si>
+    <t>categorical</t>
   </si>
 </sst>
 </file>
@@ -479,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -572,30 +581,21 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -612,21 +612,41 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
       </c>
       <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
         <v>18</v>
       </c>
     </row>

--- a/ncp-gop-transect-summer-2018/discreteratesEn617.xlsx
+++ b/ncp-gop-transect-summer-2018/discreteratesEn617.xlsx
@@ -116,9 +116,6 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>millimolePerMeterSquaredPerDay</t>
-  </si>
-  <si>
     <t>toi_source</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>categorical</t>
+  </si>
+  <si>
+    <t>millimoleOxygenPerMeterSquaredPerDay</t>
   </si>
 </sst>
 </file>
@@ -491,13 +491,14 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -581,13 +582,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -601,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -621,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
